--- a/results_submaps/hedac/30x30/hedac_30x30_True_2_500.xlsx
+++ b/results_submaps/hedac/30x30/hedac_30x30_True_2_500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,6 +1156,218 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>27.142</v>
+      </c>
+      <c r="D14" t="n">
+        <v>407.13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.14175312</v>
+      </c>
+      <c r="F14" t="n">
+        <v>23150874.4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.699889079999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12.10993844</v>
+      </c>
+      <c r="I14" t="n">
+        <v>341.42259628</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.432205234286976</v>
+      </c>
+      <c r="K14" t="n">
+        <v>81.48307851430465</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3962163935013594</v>
+      </c>
+      <c r="M14" t="n">
+        <v>11838347.66101951</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.183531674919023</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.189758000172819</v>
+      </c>
+      <c r="P14" t="n">
+        <v>158.7446962498986</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>45.54</v>
+      </c>
+      <c r="D15" t="n">
+        <v>683.014</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.27201826</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31590122.696</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.224497</v>
+      </c>
+      <c r="H15" t="n">
+        <v>21.98348316</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1039.1950829</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8.657152683484931</v>
+      </c>
+      <c r="K15" t="n">
+        <v>129.7456808043133</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2225436130582013</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12273163.91046628</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.127609198688683</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5.610320518809024</v>
+      </c>
+      <c r="P15" t="n">
+        <v>465.6026588659575</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19.82</v>
+      </c>
+      <c r="D16" t="n">
+        <v>396.4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.18429414</v>
+      </c>
+      <c r="F16" t="n">
+        <v>35823788.976</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8.88854418</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8.803746520000001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>180.07724766</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.535052076896852</v>
+      </c>
+      <c r="K16" t="n">
+        <v>70.70104153793703</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3629088317417651</v>
+      </c>
+      <c r="M16" t="n">
+        <v>14446475.93031386</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.64008603265614</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.272922095012736</v>
+      </c>
+      <c r="P16" t="n">
+        <v>78.81213722572571</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="D17" t="n">
+        <v>680.926</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.27813448</v>
+      </c>
+      <c r="F17" t="n">
+        <v>53912738.104</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10.07716026</v>
+      </c>
+      <c r="H17" t="n">
+        <v>17.1596059</v>
+      </c>
+      <c r="I17" t="n">
+        <v>607.1171421399999</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6.679875858349909</v>
+      </c>
+      <c r="K17" t="n">
+        <v>133.4753905548417</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.2283522623697615</v>
+      </c>
+      <c r="M17" t="n">
+        <v>19935099.88143703</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.487449818530974</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4.289681515161005</v>
+      </c>
+      <c r="P17" t="n">
+        <v>281.4396754879621</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
